--- a/src/Presentation/Virgol.School/BulkUserData/Student.xlsx
+++ b/src/Presentation/Virgol.School/BulkUserData/Student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\VSCode\LMS Moodle\Sample Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9717BA7A-5A12-472B-8531-5532F2892039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D407C2C6-F461-4B94-AD7A-038FAA4B0EB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>ali</t>
   </si>
@@ -58,6 +58,39 @@
   </si>
   <si>
     <t>dolatAbadi</t>
+  </si>
+  <si>
+    <t>غرفان</t>
+  </si>
+  <si>
+    <t>دهجوریان</t>
+  </si>
+  <si>
+    <t>erfan</t>
+  </si>
+  <si>
+    <t>dehjorian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمد </t>
+  </si>
+  <si>
+    <t>قنبری</t>
+  </si>
+  <si>
+    <t>mohammad</t>
+  </si>
+  <si>
+    <t>ghanbari</t>
+  </si>
+  <si>
+    <t>علی</t>
+  </si>
+  <si>
+    <t>کبیری</t>
+  </si>
+  <si>
+    <t>kabiri</t>
   </si>
 </sst>
 </file>
@@ -375,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A13" sqref="A6:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,6 +463,66 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1768998855</v>
+      </c>
+      <c r="D3">
+        <v>9153529743</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>1768998866</v>
+      </c>
+      <c r="D4">
+        <v>9153784956</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>1768998877</v>
+      </c>
+      <c r="D5">
+        <v>9157294786</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
